--- a/assets/xls/2020-08-09-Pct-Fear-Being-Laid-off.xlsx
+++ b/assets/xls/2020-08-09-Pct-Fear-Being-Laid-off.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddharth\minima\assets\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5E6B4C-8AF7-4B7B-B538-2EC17F4CE2D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA984A2-8293-4239-A950-7618FDD128BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{A8DF3A75-44EE-44E8-8510-0F1633397F31}"/>
   </bookViews>
@@ -1735,7 +1735,7 @@
   <dimension ref="B7:F27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
